--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed4/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.712600000000002</v>
+        <v>-7.852400000000004</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5863</v>
+        <v>5.270400000000004</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.529300000000001</v>
+        <v>-7.785299999999993</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.1927</v>
+        <v>-8.141100000000002</v>
       </c>
     </row>
     <row r="12">
@@ -614,7 +614,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.478199999999998</v>
+        <v>6.218099999999996</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -656,13 +656,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.110999999999996</v>
+        <v>4.900599999999998</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.945699999999993</v>
+        <v>-8.032099999999991</v>
       </c>
     </row>
     <row r="17">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.824499999999996</v>
+        <v>7.046599999999992</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.999899999999998</v>
+        <v>9.082399999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.0459</v>
+        <v>-8.111700000000001</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.980699999999995</v>
+        <v>-7.864999999999993</v>
       </c>
     </row>
     <row r="25">
@@ -796,13 +796,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.521400000000005</v>
+        <v>4.575300000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.744699999999999</v>
+        <v>-7.883900000000001</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.472600000000003</v>
+        <v>6.469600000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.422999999999998</v>
+        <v>5.273299999999998</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.861800000000001</v>
+        <v>-7.980900000000003</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.606700000000004</v>
+        <v>8.198200000000007</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.918000000000002</v>
+        <v>-8.0406</v>
       </c>
     </row>
     <row r="36">
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.225000000000009</v>
+        <v>9.348200000000007</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.3127</v>
+        <v>-7.394999999999998</v>
       </c>
     </row>
     <row r="45">
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.854000000000003</v>
+        <v>4.745200000000004</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.360399999999995</v>
+        <v>-7.294299999999997</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.106800000000003</v>
+        <v>-8.0124</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.961300000000003</v>
+        <v>-7.904100000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.904199999999996</v>
+        <v>7.213499999999989</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.284499999999993</v>
+        <v>4.990299999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.040999999999994</v>
+        <v>-7.116499999999995</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.114599999999993</v>
+        <v>-6.926099999999995</v>
       </c>
     </row>
     <row r="68">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.470599999999995</v>
+        <v>5.354799999999992</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.871000000000004</v>
+        <v>-7.931200000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>4.741500000000003</v>
+        <v>4.578800000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,13 +1524,13 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.917100000000003</v>
+        <v>8.828199999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.0396</v>
+        <v>-7.778999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.128000000000004</v>
+        <v>-8.130300000000002</v>
       </c>
     </row>
     <row r="81">
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.375899999999999</v>
+        <v>5.4961</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.155899999999997</v>
+        <v>5.412999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.100899999999999</v>
+        <v>-8.260899999999998</v>
       </c>
     </row>
     <row r="92">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.146599999999999</v>
+        <v>5.240500000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1790,13 +1790,13 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.3076</v>
+        <v>5.5709</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.580399999999996</v>
+        <v>-7.768599999999996</v>
       </c>
     </row>
     <row r="98">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.037400000000003</v>
+        <v>-8.322100000000002</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.842899999999997</v>
+        <v>-7.891099999999998</v>
       </c>
     </row>
     <row r="105">
